--- a/Section 6/65. Discounting Cash Flows in Microsoft Excel/54.+FV+and+PV-Lecture.xlsx
+++ b/Section 6/65. Discounting Cash Flows in Microsoft Excel/54.+FV+and+PV-Lecture.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data_science\udemy_economics\Section 6\65. Discounting Cash Flows in Microsoft Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC403BAA-8C84-4954-BFDB-95E9D3E3AD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CF4BC0-019F-429B-95F9-1C74F870A565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="270" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PV &amp; FV" sheetId="2" r:id="rId1"/>
-    <sheet name="PV &amp; FV (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="PV &amp; FV (manual)" sheetId="4" r:id="rId2"/>
+    <sheet name="PV &amp; FV (2)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" iterate="1"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>Calculating Present &amp; Future value</t>
   </si>
@@ -105,6 +106,12 @@
   </si>
   <si>
     <t>Доцільність інвестиції</t>
+  </si>
+  <si>
+    <t>DCF</t>
+  </si>
+  <si>
+    <t>NPV</t>
   </si>
 </sst>
 </file>
@@ -292,10 +299,10 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="8" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -764,11 +771,213 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAD020D-CC0D-48F8-BDC8-5862CF0FCB0F}">
+  <dimension ref="B1:H21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="8" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="2:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="2:8" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="9"/>
+      <c r="C7" s="17">
+        <v>0</v>
+      </c>
+      <c r="D7" s="17">
+        <v>1</v>
+      </c>
+      <c r="E7" s="17">
+        <v>2</v>
+      </c>
+      <c r="F7" s="17">
+        <v>3</v>
+      </c>
+      <c r="G7" s="17">
+        <v>4</v>
+      </c>
+      <c r="H7" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5">
+        <v>-500</v>
+      </c>
+      <c r="D8" s="6">
+        <v>30</v>
+      </c>
+      <c r="E8" s="8">
+        <v>120</v>
+      </c>
+      <c r="F8" s="7">
+        <v>200</v>
+      </c>
+      <c r="G8" s="7">
+        <v>120</v>
+      </c>
+      <c r="H8" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3">
+        <f>C8/(1+$C$4)^C7</f>
+        <v>-500</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" ref="D9:H9" si="0">D8/(1+$C$4)^D7</f>
+        <v>27.27272727272727</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
+        <v>99.173553719008254</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="0"/>
+        <v>150.2629601803155</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="0"/>
+        <v>81.96161464380846</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" si="0"/>
+        <v>74.510558767098601</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="19">
+        <f>SUM(C9:H9)</f>
+        <v>-66.818585417041888</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="14" spans="2:8" ht="12" x14ac:dyDescent="0.2">
+      <c r="B14" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="19">
+        <f>SUM(C8,NPV(C4,D8:H8))</f>
+        <v>-66.818585417041902</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" ht="12" x14ac:dyDescent="0.2">
+      <c r="C18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="D18" s="7">
+        <f>D8/(1+$C$4)^D7</f>
+        <v>27.27272727272727</v>
+      </c>
+      <c r="E18" s="7">
+        <f>E8/(1+$C$4)^E7</f>
+        <v>99.173553719008254</v>
+      </c>
+      <c r="F18" s="7">
+        <f>F8/(1+$C$4)^F7</f>
+        <v>150.2629601803155</v>
+      </c>
+      <c r="G18" s="7">
+        <f>G8/(1+$C$4)^G7</f>
+        <v>81.96161464380846</v>
+      </c>
+      <c r="H18" s="7">
+        <f>H8/(1+$C$4)^H7</f>
+        <v>74.510558767098601</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="21">
+        <f>SUM(C18:H18)</f>
+        <v>-66.818585417041888</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="20">
+        <f>C8+NPV(C4,D8:H8)</f>
+        <v>-66.818585417041902</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BEE3056-3035-420D-AD3B-FC029853D52D}">
   <dimension ref="B1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,13 +1129,13 @@
       <c r="C16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
     </row>
     <row r="17" spans="2:9" ht="12" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
@@ -1111,7 +1320,7 @@
         <f>H29/(1+$C$4)^H28</f>
         <v>248.36852922366199</v>
       </c>
-      <c r="I30" s="22">
+      <c r="I30" s="21">
         <f>C30+SUM(D30:H30)</f>
         <v>176.72041775586604</v>
       </c>

--- a/Section 6/65. Discounting Cash Flows in Microsoft Excel/54.+FV+and+PV-Lecture.xlsx
+++ b/Section 6/65. Discounting Cash Flows in Microsoft Excel/54.+FV+and+PV-Lecture.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data_science\udemy_economics\Section 6\65. Discounting Cash Flows in Microsoft Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CF4BC0-019F-429B-95F9-1C74F870A565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61E1421-44AC-4159-83E7-0E30FFE12E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="270" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="270" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PV &amp; FV" sheetId="2" r:id="rId1"/>
@@ -613,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H14"/>
+  <dimension ref="B1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,6 +764,40 @@
         <v>-66.818585417041902</v>
       </c>
     </row>
+    <row r="20" spans="2:9" ht="12" x14ac:dyDescent="0.2">
+      <c r="B20" s="20">
+        <f>C8+NPV(C4,D8:H8)</f>
+        <v>-66.818585417041902</v>
+      </c>
+      <c r="C20" s="3">
+        <f>C9</f>
+        <v>-500</v>
+      </c>
+      <c r="D20" s="7">
+        <f>D8/(1+$C$4)^D7</f>
+        <v>27.27272727272727</v>
+      </c>
+      <c r="E20" s="7">
+        <f t="shared" ref="E20:H20" si="1">E8/(1+$C$4)^E7</f>
+        <v>99.173553719008254</v>
+      </c>
+      <c r="F20" s="7">
+        <f t="shared" si="1"/>
+        <v>150.2629601803155</v>
+      </c>
+      <c r="G20" s="7">
+        <f t="shared" si="1"/>
+        <v>81.96161464380846</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" si="1"/>
+        <v>74.510558767098601</v>
+      </c>
+      <c r="I20" s="3">
+        <f>SUM(C20:H20)</f>
+        <v>-66.818585417041888</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -774,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAD020D-CC0D-48F8-BDC8-5862CF0FCB0F}">
   <dimension ref="B1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Section 6/65. Discounting Cash Flows in Microsoft Excel/54.+FV+and+PV-Lecture.xlsx
+++ b/Section 6/65. Discounting Cash Flows in Microsoft Excel/54.+FV+and+PV-Lecture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data_science\udemy_economics\Section 6\65. Discounting Cash Flows in Microsoft Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61E1421-44AC-4159-83E7-0E30FFE12E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8A9469-9080-4B32-B71F-781FBBFEFEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="270" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -613,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I20"/>
+  <dimension ref="B1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,6 +797,88 @@
         <f>SUM(C20:H20)</f>
         <v>-66.818585417041888</v>
       </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="8">
+        <v>2</v>
+      </c>
+      <c r="F23" s="3">
+        <v>3</v>
+      </c>
+      <c r="G23" s="3">
+        <v>4</v>
+      </c>
+      <c r="H23" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="D24" s="3">
+        <v>30</v>
+      </c>
+      <c r="E24" s="8">
+        <v>120</v>
+      </c>
+      <c r="F24" s="3">
+        <v>200</v>
+      </c>
+      <c r="G24" s="3">
+        <v>120</v>
+      </c>
+      <c r="H24" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="12" x14ac:dyDescent="0.2">
+      <c r="C25" s="3">
+        <v>-500</v>
+      </c>
+      <c r="D25" s="3">
+        <f>D24/($C$4+1)^D23</f>
+        <v>27.27272727272727</v>
+      </c>
+      <c r="E25" s="3">
+        <f>E24/($C$4+1)^E23</f>
+        <v>99.173553719008254</v>
+      </c>
+      <c r="F25" s="3">
+        <f>F24/($C$4+1)^F23</f>
+        <v>150.2629601803155</v>
+      </c>
+      <c r="G25" s="3">
+        <f>G24/($C$4+1)^G23</f>
+        <v>81.96161464380846</v>
+      </c>
+      <c r="H25" s="3">
+        <f>H24/($C$4+1)^H23</f>
+        <v>74.510558767098601</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="16"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="2:9" ht="12" x14ac:dyDescent="0.2">
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
